--- a/biology/Botanique/Ralph_Works_Chaney/Ralph_Works_Chaney.xlsx
+++ b/biology/Botanique/Ralph_Works_Chaney/Ralph_Works_Chaney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ralph Works Chaney (né le 24 août 1890 à Brainerd, mort le 3 mars 1971 à Berkeley (Californie)) est un paléobotaniste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il va à la Hyde Park Academy High School et commence à cultiver son intérêt pour l'ornithologie. Il devient un ornithologue amateur avide et recueille une série d’œufs et de plumes d’oiseaux. Après avoir obtenu son diplôme, Chaney s'installe brièvement dans le Dakota du Sud avant de s'inscrire à l'université de Chicago à l'automne 1908. Son intérêt passe de l'ornithologie à la botanique et finalement à la paléobotanique. Il a obtenu son baccalauréat universitaire en sciences en géologie de l'université de Chicago en 1912.
 Chaney commence à travailler à l'université de Chicago pour obtenir un diplôme de deuxième cycle en paléontologie auprès de Stuart Weller. Après deux ans, il découvre qu'il n'apprécie pas particulièrement ses études du Paléozoïque.
